--- a/Examples/pcb/pcb_model20.xlsx
+++ b/Examples/pcb/pcb_model20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE76C3CB-D5FB-48CC-92D0-402B168816B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10341655-3AE0-4F23-A88E-4FDD76A59E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="375" windowWidth="23670" windowHeight="12525" activeTab="5" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="30" yWindow="1200" windowWidth="23670" windowHeight="12525" firstSheet="1" activeTab="6" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
   <si>
     <t>Formula de exergía de concentración y ver si tiene sentido</t>
   </si>
@@ -695,7 +695,13 @@
     <t>DIAGNOSIS</t>
   </si>
   <si>
-    <t>BC20</t>
+    <t>ELC20</t>
+  </si>
+  <si>
+    <t>H2_NR</t>
+  </si>
+  <si>
+    <t>H2_R</t>
   </si>
 </sst>
 </file>
@@ -14331,8 +14337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF80DF5-EE90-449A-8E70-BBD1318EAD45}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15228,10 +15234,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB5590-4F04-43DB-9618-1983DFB96EE7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15241,7 +15247,7 @@
     <col min="3" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
@@ -15264,16 +15270,22 @@
         <v>190</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -15299,15 +15311,20 @@
         <v>0</v>
       </c>
       <c r="I2" s="15">
-        <f>SUM(C2:G2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <f>H2+I2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="15">
+        <f>SUM(C2:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -15330,18 +15347,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I3" s="15">
-        <f t="shared" ref="I3:I26" si="0">SUM(C3:G3)</f>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ref="K3:K26" si="0">SUM(C3:H3)</f>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J26" si="1">H3+I3</f>
+      <c r="L3" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -15364,18 +15386,23 @@
         <v>1.7348330957489673</v>
       </c>
       <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
         <v>0.2767272850601003</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>5.9352842577453373</v>
       </c>
-      <c r="J4" s="15">
-        <f t="shared" si="1"/>
+      <c r="L4" s="15">
         <v>6.2120115428054374</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -15401,15 +15428,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="J5" s="15">
-        <f t="shared" si="1"/>
+      <c r="L5" s="15">
         <v>1.06</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -15432,18 +15464,23 @@
         <v>2.0496344287385013</v>
       </c>
       <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
         <v>0.326941982038708</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>7.0101895441580844</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" si="1"/>
+      <c r="L6" s="15">
         <v>7.3371315261967922</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -15469,15 +15506,20 @@
         <v>0</v>
       </c>
       <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" si="1"/>
+      <c r="L7" s="15">
         <v>1.04</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -15500,18 +15542,23 @@
         <v>2.0496344287385013</v>
       </c>
       <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
         <v>0.326941982038708</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>7.0101895441580844</v>
       </c>
-      <c r="J8" s="15">
-        <f t="shared" si="1"/>
+      <c r="L8" s="15">
         <v>7.3371315261967922</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -15537,15 +15584,20 @@
         <v>0</v>
       </c>
       <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="15">
-        <f t="shared" si="1"/>
+      <c r="L9" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
@@ -15571,15 +15623,20 @@
         <v>0</v>
       </c>
       <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="15">
-        <f t="shared" si="1"/>
+      <c r="L10" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
@@ -15602,18 +15659,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J11" s="15">
-        <f t="shared" si="1"/>
+      <c r="L11" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -15636,18 +15698,23 @@
         <v>5.977067451065033E-2</v>
       </c>
       <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <v>9.5341601010917043E-3</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>0.30627782214211458</v>
       </c>
-      <c r="J12" s="15">
-        <f t="shared" si="1"/>
+      <c r="L12" s="15">
         <v>0.31581198224320628</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
@@ -15673,15 +15740,20 @@
         <v>0</v>
       </c>
       <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
+      <c r="L13" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
@@ -15707,15 +15779,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
+      <c r="L14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -15738,18 +15815,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I15" s="15">
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J15" s="15">
-        <f t="shared" si="1"/>
+      <c r="L15" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -15775,15 +15857,20 @@
         <v>0</v>
       </c>
       <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="15">
-        <f t="shared" si="1"/>
+      <c r="L16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -15806,18 +15893,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I17" s="15">
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J17" s="15">
-        <f t="shared" si="1"/>
+      <c r="L17" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -15840,18 +15932,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I18" s="15">
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="1"/>
+      <c r="L18" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
@@ -15874,18 +15971,23 @@
         <v>0.13840036862900676</v>
       </c>
       <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
         <v>2.207656653304017E-2</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
         <f t="shared" si="0"/>
         <v>0.29695396805621099</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
+      <c r="L19" s="15">
         <v>0.31903053458925118</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
@@ -15908,18 +16010,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" si="1"/>
+      <c r="L20" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -15942,18 +16049,23 @@
         <v>5.2193663039159652</v>
       </c>
       <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
         <v>0.8325533277846997</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
         <f t="shared" si="0"/>
         <v>9.7819122985816005</v>
       </c>
-      <c r="J21" s="15">
-        <f t="shared" si="1"/>
+      <c r="L21" s="15">
         <v>10.6144656263663</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>62</v>
       </c>
@@ -15976,18 +16088,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="1"/>
+      <c r="L22" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
@@ -16010,18 +16127,23 @@
         <v>25.689040848611079</v>
       </c>
       <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
         <v>4.097718995131979</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
         <f t="shared" si="0"/>
         <v>30.675090957794048</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="1"/>
+      <c r="L23" s="15">
         <v>34.772809952926025</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>66</v>
       </c>
@@ -16044,18 +16166,23 @@
         <v>1.7907016392155253</v>
       </c>
       <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
         <v>0.28563900711085366</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>1.7907016392155253</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="1"/>
+      <c r="L24" s="15">
         <v>2.0763406463263792</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
@@ -16078,18 +16205,23 @@
         <v>16.131398881647378</v>
       </c>
       <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
         <v>2.5731571686512047</v>
       </c>
-      <c r="I25" s="15">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
         <f t="shared" si="0"/>
         <v>21.308405512411063</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="1"/>
+      <c r="L25" s="15">
         <v>23.881562681062267</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>70</v>
       </c>
@@ -16112,21 +16244,26 @@
         <v>8.9706868723601616</v>
       </c>
       <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
         <v>1.4309352463908269</v>
       </c>
-      <c r="I26" s="15">
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>13.311438852551241</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" si="1"/>
+      <c r="L26" s="15">
         <v>14.742374098942069</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I2:I5 I6:I26" formulaRange="1"/>
+    <ignoredError sqref="K2:K26" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Examples/pcb/pcb_model20.xlsx
+++ b/Examples/pcb/pcb_model20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10341655-3AE0-4F23-A88E-4FDD76A59E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF717C8-1636-4761-90B6-D8551F6F4332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1200" windowWidth="23670" windowHeight="12525" firstSheet="1" activeTab="6" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="5" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -632,12 +632,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>ERC</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
@@ -702,6 +696,12 @@
   </si>
   <si>
     <t>H2_R</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>ERC20</t>
   </si>
 </sst>
 </file>
@@ -14235,13 +14235,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14255,12 +14255,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
@@ -14269,12 +14269,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
@@ -14283,12 +14283,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
@@ -14297,12 +14297,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
@@ -14311,12 +14311,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -14325,7 +14325,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -14337,8 +14337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF80DF5-EE90-449A-8E70-BBD1318EAD45}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14354,13 +14354,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -15236,7 +15236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB5590-4F04-43DB-9618-1983DFB96EE7}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -15255,34 +15255,34 @@
         <v>22</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -16286,7 +16286,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Examples/pcb/pcb_model20.xlsx
+++ b/Examples/pcb/pcb_model20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF717C8-1636-4761-90B6-D8551F6F4332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0444F-EBB9-46B7-9A3C-CD3FA2F10005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="5" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="8595" yWindow="615" windowWidth="13095" windowHeight="15480" firstSheet="1" activeTab="4" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -14220,8 +14220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D74396-DEA4-439F-9215-0D18D0FD395A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14263,7 +14263,7 @@
         <v>195</v>
       </c>
       <c r="B3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -14277,7 +14277,7 @@
         <v>196</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -14291,7 +14291,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14305,7 +14305,7 @@
         <v>199</v>
       </c>
       <c r="B6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -14337,7 +14337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF80DF5-EE90-449A-8E70-BBD1318EAD45}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/Examples/pcb/pcb_model20.xlsx
+++ b/Examples/pcb/pcb_model20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0444F-EBB9-46B7-9A3C-CD3FA2F10005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE29EF19-BEF8-4E25-B60F-1D5F19FA4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="615" windowWidth="13095" windowHeight="15480" firstSheet="1" activeTab="4" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="8" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WasteAllocation" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="5">Exergy!$A$1:$C$8</definedName>
     <definedName name="tgas_fmt" localSheetId="4">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -13903,16 +13903,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1"/>
     <col min="8" max="8" width="2.140625" style="1" customWidth="1"/>
@@ -13927,7 +13927,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>180</v>
@@ -13936,7 +13936,7 @@
         <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13944,7 +13944,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>176</v>
@@ -13953,7 +13953,7 @@
         <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>172</v>
@@ -13970,7 +13970,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13978,7 +13978,7 @@
         <v>171</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>169</v>
@@ -13987,7 +13987,7 @@
         <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13995,7 +13995,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>166</v>
@@ -14004,7 +14004,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14012,7 +14012,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>163</v>
@@ -14021,7 +14021,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14029,7 +14029,7 @@
         <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>160</v>
@@ -14038,7 +14038,7 @@
         <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -14046,7 +14046,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>156</v>
@@ -14055,7 +14055,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>153</v>
@@ -14072,7 +14072,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14080,7 +14080,7 @@
         <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>150</v>
@@ -14089,7 +14089,7 @@
         <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14097,7 +14097,7 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>146</v>
@@ -14106,7 +14106,7 @@
         <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14114,7 +14114,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>142</v>
@@ -14123,7 +14123,7 @@
         <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14131,7 +14131,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -14140,7 +14140,7 @@
         <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14148,7 +14148,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>134</v>
@@ -14157,7 +14157,7 @@
         <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14165,7 +14165,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>80</v>
@@ -14174,7 +14174,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14182,7 +14182,7 @@
         <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>100</v>
@@ -14191,7 +14191,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
         <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>127</v>
@@ -14208,7 +14208,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -14220,7 +14220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D74396-DEA4-439F-9215-0D18D0FD395A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -16337,8 +16337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C541643E-9FE2-46CB-9EFB-A5161BA9F644}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
